--- a/server/IndianExpress_Video.xlsx
+++ b/server/IndianExpress_Video.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Heading</t>
   </si>
@@ -38,6 +38,18 @@
   </si>
   <si>
     <t>https://indianexpress.com/videos/news-video/khalistan-supporter-sukha-duneke-gunned-down-in-canada-wanted-in-punjab-for-serious-crimes/</t>
+  </si>
+  <si>
+    <t>Why AIMIM MPs Asaduddin Owaisi and Imtiaz Jaleel Voted Against Women's Reservation Bill?</t>
+  </si>
+  <si>
+    <t>690 women women MP 7 elected till the 17 Lok Sabha and out of this 690 on 25 have come at the Muslim community in 576291 99 There Have Been No Muslim Women Go ElectedAnother back in Lok Sabha nowAnd we had also introduced an amendment for Muslim women.If Nishad is a Muslim woman, then there should be a reference to her. What is the purpose of bringing the bill that they should be elected in the Lok Sabha and in the State Assemblies?690 women MPs have been elected so far, out of which 25 are Muslims.And there were four such Lok Sabhas where no Muslim woman MP was alerted, out of 57, out of 62, out of 91, out of 92, so we are saying that nowMuslim women OBC women should get more Muslim women members</t>
+  </si>
+  <si>
+    <t>Women Reservation Bill: AIMIM Chief Asaduddin Owaisi said that Muslim and OBC women should get the reservation. He said, “There have been 4 such Lok Sabhas where there were no Muslim Women MPs... All we are saying is that Muslim and OBC women should get the reservation.”</t>
+  </si>
+  <si>
+    <t>https://indianexpress.com/videos/explained-video/why-aimim-mps-asaduddin-owaisi-and-imtiaz-jaleel-voted-against-womens-reservation-bill/</t>
   </si>
 </sst>
 </file>
@@ -382,7 +394,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -416,9 +428,24 @@
         <v>7</v>
       </c>
     </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
